--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401113.2276324996</v>
+        <v>401113.2276324998</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21591548.19464374</v>
+        <v>21591548.19464375</v>
       </c>
     </row>
     <row r="9">
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>23.03907474866154</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.97119517355515</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.01026992221666</v>
+        <v>63.855133228719</v>
       </c>
       <c r="S11" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="T11" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>63.85513322871898</v>
+        <v>35.41823547048761</v>
       </c>
       <c r="F12" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
       <c r="H12" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.24360134785565</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.82536587736807</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.10679827964633</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R14" t="n">
-        <v>56.01026992221666</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
     </row>
     <row r="15">
@@ -1728,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.82536587736807</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.85513322871898</v>
+        <v>56.24360134785571</v>
       </c>
       <c r="S15" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="T15" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="U15" t="n">
-        <v>35.41823547048758</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>63.855133228719</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R17" t="n">
-        <v>43.64160087787294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>75.75037177877059</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.75037177877059</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>75.75037177877059</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.738129235302759</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>54.26270277446281</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.250217396118515</v>
+        <v>67.38323058968081</v>
       </c>
       <c r="J18" t="n">
-        <v>38.64534418925452</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R18" t="n">
-        <v>75.75037177877059</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>75.75037177877059</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>75.75037177877059</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2081,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>43.38363382164836</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>75.99846473532446</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.99846473532446</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>9.480162179077984</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>75.99846473532446</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.99846473532446</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>75.99846473532446</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>66.93944773887378</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>75.99846473532446</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>66.93944773887385</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>75.9984647353245</v>
       </c>
     </row>
     <row r="22">
@@ -2324,55 +2324,55 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>81.88861185256235</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>31.48612565953945</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>81.88861185256235</v>
@@ -2384,7 +2384,7 @@
         <v>81.88861185256235</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>31.48612565953966</v>
       </c>
     </row>
     <row r="24">
@@ -2394,73 +2394,73 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>81.88861185256235</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>81.88861185256235</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>72.12748931973691</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>81.88861185256235</v>
-      </c>
-      <c r="X24" t="n">
-        <v>81.88861185256235</v>
       </c>
       <c r="Y24" t="n">
         <v>81.88861185256235</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>81.88861185256235</v>
+        <v>31.48612565953967</v>
       </c>
       <c r="X26" t="n">
-        <v>81.88861185256235</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.48612565953944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,73 +2634,73 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>81.88861185256235</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="W27" t="n">
+        <v>81.88861185256235</v>
+      </c>
+      <c r="X27" t="n">
+        <v>81.88861185256235</v>
+      </c>
+      <c r="Y27" t="n">
         <v>72.12748931973691</v>
-      </c>
-      <c r="G27" t="n">
-        <v>81.88861185256235</v>
-      </c>
-      <c r="H27" t="n">
-        <v>81.88861185256235</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>31.48612565953978</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.90347164257051</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>81.88861185256235</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>79.47126586953127</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,17 +2874,17 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>81.88861185256235</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>81.88861185256235</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>81.88861185256235</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>72.12748931973691</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>72.12748931973691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3032,10 +3032,10 @@
         <v>81.88861185256235</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>31.48612565953966</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>31.48612565953945</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.88861185256235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>72.12748931973691</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>43.64160087787302</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.90347164257051</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>75.75037177877061</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>75.75037177877061</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>75.75037177877061</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.73812923530242</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="D36" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="F36" t="n">
-        <v>45.89556158537305</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>45.89556158537309</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.75037177877061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>43.64160087787288</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>75.75037177877064</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>75.75037177877064</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>75.75037177877064</v>
+        <v>10.67040570431796</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>45.89556158537309</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R39" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="S39" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="T39" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="U39" t="n">
-        <v>66.72092746274114</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>56.01026992221679</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>56.01026992221666</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="V41" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="X41" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.82536587736807</v>
+        <v>17.59825715860122</v>
       </c>
       <c r="R42" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>63.85513322871898</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>35.41823547048758</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63.60704027216513</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>63.60704027216513</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="I44" t="n">
-        <v>56.02508107172299</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>56.02508107172316</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="E45" t="n">
-        <v>63.60704027216513</v>
+        <v>35.19971519435509</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>56.02508107172299</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>63.60704027216513</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>63.60704027216513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="C11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="D11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="E11" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275882</v>
       </c>
       <c r="F11" t="n">
-        <v>5.108410658297519</v>
+        <v>38.41264820734312</v>
       </c>
       <c r="G11" t="n">
-        <v>5.108410658297519</v>
+        <v>38.41264820734312</v>
       </c>
       <c r="H11" t="n">
-        <v>5.108410658297519</v>
+        <v>38.41264820734312</v>
       </c>
       <c r="I11" t="n">
-        <v>5.108410658297519</v>
+        <v>38.41264820734312</v>
       </c>
       <c r="J11" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="K11" t="n">
-        <v>6.925806986395913</v>
+        <v>6.925806986395915</v>
       </c>
       <c r="L11" t="n">
         <v>46.08220969451749</v>
@@ -5063,28 +5063,28 @@
         <v>255.1848446061497</v>
       </c>
       <c r="R11" t="n">
-        <v>198.6088143816884</v>
+        <v>190.6847100316861</v>
       </c>
       <c r="S11" t="n">
-        <v>134.1086798072248</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="T11" t="n">
-        <v>69.60854523276114</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="U11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="V11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="W11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="X11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.108410658297519</v>
+        <v>126.1845754572225</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="C12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="D12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="E12" t="n">
-        <v>190.9203983404123</v>
+        <v>134.1086798072248</v>
       </c>
       <c r="F12" t="n">
-        <v>126.4202637659487</v>
+        <v>69.60854523276116</v>
       </c>
       <c r="G12" t="n">
-        <v>126.4202637659487</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="H12" t="n">
-        <v>61.92012919148505</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="I12" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="J12" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="K12" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="L12" t="n">
-        <v>68.32499255472931</v>
+        <v>68.32499255472933</v>
       </c>
       <c r="M12" t="n">
-        <v>131.5415744511611</v>
+        <v>131.5415744511612</v>
       </c>
       <c r="N12" t="n">
         <v>148.3696278419162</v>
       </c>
       <c r="O12" t="n">
-        <v>211.586209738348</v>
+        <v>211.5862097383481</v>
       </c>
       <c r="P12" t="n">
-        <v>255.4205329148759</v>
+        <v>255.420532914876</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.4205329148759</v>
+        <v>234.3848098064234</v>
       </c>
       <c r="R12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="S12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="T12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="U12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="V12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="W12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="X12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.4205329148759</v>
+        <v>169.8846752319598</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="C13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="D13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="E13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="F13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="G13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="H13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="I13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="J13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="K13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="L13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="M13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="N13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="O13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="P13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="R13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="S13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="T13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="U13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="V13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="W13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="X13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.108410658297519</v>
+        <v>156.4387790795948</v>
       </c>
       <c r="C14" t="n">
-        <v>5.108410658297519</v>
+        <v>156.4387790795948</v>
       </c>
       <c r="D14" t="n">
-        <v>5.108410658297519</v>
+        <v>156.4387790795948</v>
       </c>
       <c r="E14" t="n">
-        <v>5.108410658297519</v>
+        <v>156.4387790795948</v>
       </c>
       <c r="F14" t="n">
-        <v>5.108410658297519</v>
+        <v>134.1086798072248</v>
       </c>
       <c r="G14" t="n">
-        <v>5.108410658297519</v>
+        <v>69.60854523276116</v>
       </c>
       <c r="H14" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="I14" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="J14" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="K14" t="n">
-        <v>6.925806986395913</v>
+        <v>6.925806986395943</v>
       </c>
       <c r="L14" t="n">
-        <v>46.08220969451749</v>
+        <v>46.08220969451758</v>
       </c>
       <c r="M14" t="n">
-        <v>109.2987915909493</v>
+        <v>109.2987915909494</v>
       </c>
       <c r="N14" t="n">
-        <v>172.5153734873811</v>
+        <v>172.5153734873812</v>
       </c>
       <c r="O14" t="n">
-        <v>235.7319553838129</v>
+        <v>235.731955383813</v>
       </c>
       <c r="P14" t="n">
-        <v>255.1848446061497</v>
+        <v>255.1848446061499</v>
       </c>
       <c r="Q14" t="n">
-        <v>255.1848446061497</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="R14" t="n">
-        <v>198.6088143816884</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="S14" t="n">
-        <v>134.1086798072248</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="T14" t="n">
-        <v>69.60854523276114</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="U14" t="n">
-        <v>5.108410658297519</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="V14" t="n">
-        <v>5.108410658297519</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="W14" t="n">
-        <v>5.108410658297519</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="X14" t="n">
-        <v>5.108410658297519</v>
+        <v>220.9389136540585</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.108410658297519</v>
+        <v>156.4387790795948</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="C15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="D15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="E15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="F15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="G15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="H15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="I15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="J15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="K15" t="n">
-        <v>5.108410658297519</v>
+        <v>17.87269730951961</v>
       </c>
       <c r="L15" t="n">
-        <v>68.32499255472931</v>
+        <v>81.08927920595141</v>
       </c>
       <c r="M15" t="n">
-        <v>131.5415744511611</v>
+        <v>144.3058611023832</v>
       </c>
       <c r="N15" t="n">
         <v>148.3696278419162</v>
       </c>
       <c r="O15" t="n">
-        <v>211.586209738348</v>
+        <v>211.5862097383481</v>
       </c>
       <c r="P15" t="n">
-        <v>255.4205329148759</v>
+        <v>255.420532914876</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3848098064233</v>
+        <v>255.420532914876</v>
       </c>
       <c r="R15" t="n">
-        <v>169.8846752319597</v>
+        <v>198.6088143816884</v>
       </c>
       <c r="S15" t="n">
-        <v>105.3845406574961</v>
+        <v>134.1086798072248</v>
       </c>
       <c r="T15" t="n">
-        <v>40.88440608303245</v>
+        <v>69.60854523276116</v>
       </c>
       <c r="U15" t="n">
-        <v>5.108410658297519</v>
+        <v>69.60854523276116</v>
       </c>
       <c r="V15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="W15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="X15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="C16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="D16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="E16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="F16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="G16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="H16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="I16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="J16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="K16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="L16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="M16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="N16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="O16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="P16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="R16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="S16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="T16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="U16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="V16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="W16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="X16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="C17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="D17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="E17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="F17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="G17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="H17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="I17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="J17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="K17" t="n">
-        <v>7.877426070400041</v>
+        <v>7.877426070400069</v>
       </c>
       <c r="L17" t="n">
-        <v>47.03382877852162</v>
+        <v>47.03382877852171</v>
       </c>
       <c r="M17" t="n">
-        <v>122.0266968395045</v>
+        <v>122.0266968395046</v>
       </c>
       <c r="N17" t="n">
-        <v>197.0195649004874</v>
+        <v>197.0195649004875</v>
       </c>
       <c r="O17" t="n">
-        <v>260.2361467969191</v>
+        <v>260.2361467969193</v>
       </c>
       <c r="P17" t="n">
-        <v>279.6890360192559</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="Q17" t="n">
-        <v>279.6890360192559</v>
+        <v>245.4431050671648</v>
       </c>
       <c r="R17" t="n">
-        <v>235.6066108900913</v>
+        <v>245.4431050671648</v>
       </c>
       <c r="S17" t="n">
-        <v>159.0910838408281</v>
+        <v>245.4431050671648</v>
       </c>
       <c r="T17" t="n">
-        <v>82.57555679156488</v>
+        <v>245.4431050671648</v>
       </c>
       <c r="U17" t="n">
-        <v>6.060029742301647</v>
+        <v>168.9275780179016</v>
       </c>
       <c r="V17" t="n">
-        <v>6.060029742301647</v>
+        <v>92.41205096863835</v>
       </c>
       <c r="W17" t="n">
-        <v>6.060029742301647</v>
+        <v>15.89652391937514</v>
       </c>
       <c r="X17" t="n">
-        <v>6.060029742301647</v>
+        <v>15.89652391937514</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.41918285884006</v>
+        <v>205.4502369573665</v>
       </c>
       <c r="C18" t="n">
-        <v>52.41918285884006</v>
+        <v>128.9347099081033</v>
       </c>
       <c r="D18" t="n">
-        <v>52.41918285884006</v>
+        <v>74.12389902480751</v>
       </c>
       <c r="E18" t="n">
-        <v>52.41918285884006</v>
+        <v>74.12389902480751</v>
       </c>
       <c r="F18" t="n">
-        <v>52.41918285884006</v>
+        <v>74.12389902480751</v>
       </c>
       <c r="G18" t="n">
-        <v>52.41918285884006</v>
+        <v>74.12389902480751</v>
       </c>
       <c r="H18" t="n">
-        <v>52.41918285884006</v>
+        <v>74.12389902480751</v>
       </c>
       <c r="I18" t="n">
-        <v>45.09573094356883</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="J18" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="K18" t="n">
-        <v>18.82431639352373</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="L18" t="n">
-        <v>82.31001616205627</v>
+        <v>34.18855975560572</v>
       </c>
       <c r="M18" t="n">
-        <v>109.1814278165887</v>
+        <v>109.1814278165886</v>
       </c>
       <c r="N18" t="n">
         <v>184.1742958775715</v>
       </c>
       <c r="O18" t="n">
-        <v>259.1671639385544</v>
+        <v>259.1671639385543</v>
       </c>
       <c r="P18" t="n">
         <v>303.0014871150823</v>
@@ -5616,28 +5616,28 @@
         <v>281.9657640066297</v>
       </c>
       <c r="R18" t="n">
-        <v>205.4502369573665</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="S18" t="n">
-        <v>128.9347099081033</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="T18" t="n">
-        <v>52.41918285884006</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="U18" t="n">
-        <v>52.41918285884006</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="V18" t="n">
-        <v>52.41918285884006</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="W18" t="n">
-        <v>52.41918285884006</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="X18" t="n">
-        <v>52.41918285884006</v>
+        <v>281.9657640066297</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.41918285884006</v>
+        <v>281.9657640066297</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="C19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="D19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="E19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="F19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="G19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="H19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="I19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="J19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="K19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="L19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="M19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="N19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="O19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="P19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="R19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="S19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="T19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="U19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="V19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="W19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="X19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.060029742301647</v>
+        <v>6.060029742301646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>203.4339815144798</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="C20" t="n">
-        <v>159.6121291693804</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="D20" t="n">
-        <v>159.6121291693804</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="E20" t="n">
-        <v>82.84600317410319</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="F20" t="n">
-        <v>6.079877178825957</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="G20" t="n">
-        <v>6.079877178825957</v>
+        <v>169.1880505623886</v>
       </c>
       <c r="H20" t="n">
-        <v>6.079877178825957</v>
+        <v>92.4219245671113</v>
       </c>
       <c r="I20" t="n">
-        <v>6.079877178825957</v>
+        <v>15.65579857183403</v>
       </c>
       <c r="J20" t="n">
-        <v>6.079877178825957</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="K20" t="n">
-        <v>7.897273506924352</v>
+        <v>7.897273506924383</v>
       </c>
       <c r="L20" t="n">
-        <v>47.05367621504593</v>
+        <v>47.05367621504602</v>
       </c>
       <c r="M20" t="n">
-        <v>122.2921563030172</v>
+        <v>122.2921563030173</v>
       </c>
       <c r="N20" t="n">
-        <v>197.5306363909884</v>
+        <v>197.5306363909885</v>
       </c>
       <c r="O20" t="n">
-        <v>260.7472182874202</v>
+        <v>260.7472182874204</v>
       </c>
       <c r="P20" t="n">
-        <v>280.200107509757</v>
+        <v>280.2001075097572</v>
       </c>
       <c r="Q20" t="n">
-        <v>280.200107509757</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="R20" t="n">
-        <v>280.200107509757</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="S20" t="n">
-        <v>280.200107509757</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="T20" t="n">
-        <v>280.200107509757</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="U20" t="n">
-        <v>280.200107509757</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="V20" t="n">
-        <v>203.4339815144798</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="W20" t="n">
-        <v>203.4339815144798</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="X20" t="n">
-        <v>203.4339815144798</v>
+        <v>245.9541765576658</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.4339815144798</v>
+        <v>245.9541765576658</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.4616069507434</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="C21" t="n">
-        <v>150.4616069507434</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="D21" t="n">
-        <v>150.4616069507434</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="E21" t="n">
-        <v>73.69548095546614</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="F21" t="n">
-        <v>73.69548095546614</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="G21" t="n">
-        <v>6.079877178825957</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="H21" t="n">
-        <v>6.079877178825957</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="I21" t="n">
-        <v>6.079877178825957</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="J21" t="n">
-        <v>6.079877178825957</v>
+        <v>6.07987717882596</v>
       </c>
       <c r="K21" t="n">
         <v>18.84416383004805</v>
       </c>
       <c r="L21" t="n">
-        <v>82.32986359858059</v>
+        <v>82.32986359858062</v>
       </c>
       <c r="M21" t="n">
-        <v>157.5683436865518</v>
+        <v>157.5683436865519</v>
       </c>
       <c r="N21" t="n">
-        <v>232.806823774523</v>
+        <v>232.8068237745231</v>
       </c>
       <c r="O21" t="n">
-        <v>260.1595357647699</v>
+        <v>260.1595357647701</v>
       </c>
       <c r="P21" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="R21" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="S21" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="T21" t="n">
-        <v>227.2277329460206</v>
+        <v>303.993858941298</v>
       </c>
       <c r="U21" t="n">
-        <v>227.2277329460206</v>
+        <v>227.2277329460208</v>
       </c>
       <c r="V21" t="n">
-        <v>227.2277329460206</v>
+        <v>227.2277329460208</v>
       </c>
       <c r="W21" t="n">
-        <v>227.2277329460206</v>
+        <v>150.4616069507435</v>
       </c>
       <c r="X21" t="n">
-        <v>227.2277329460206</v>
+        <v>82.84600317410323</v>
       </c>
       <c r="Y21" t="n">
-        <v>227.2277329460206</v>
+        <v>6.07987717882596</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="C22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="D22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="E22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="F22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="G22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="H22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="I22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="J22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="K22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="L22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="M22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="N22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="O22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="P22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="Q22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="R22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="S22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="T22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="U22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="V22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="W22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="X22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
       <c r="Y22" t="n">
-        <v>303.9938589412978</v>
+        <v>303.993858941298</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.26685849624778</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="C23" t="n">
-        <v>89.26685849624778</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="D23" t="n">
-        <v>89.26685849624778</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="E23" t="n">
         <v>6.551088948204988</v>
@@ -5990,49 +5990,49 @@
         <v>6.551088948204988</v>
       </c>
       <c r="K23" t="n">
-        <v>8.368485276303382</v>
+        <v>8.36848527630341</v>
       </c>
       <c r="L23" t="n">
-        <v>47.52488798442496</v>
+        <v>47.52488798442505</v>
       </c>
       <c r="M23" t="n">
-        <v>122.7633680723962</v>
+        <v>122.7633680723963</v>
       </c>
       <c r="N23" t="n">
-        <v>203.8330938064329</v>
+        <v>203.8330938064331</v>
       </c>
       <c r="O23" t="n">
-        <v>267.0496757028646</v>
+        <v>267.0496757028649</v>
       </c>
       <c r="P23" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="Q23" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="R23" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="S23" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="T23" t="n">
-        <v>286.5025649252015</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="U23" t="n">
-        <v>254.6983975923333</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="V23" t="n">
-        <v>171.9826280442905</v>
+        <v>121.0710258291161</v>
       </c>
       <c r="W23" t="n">
-        <v>171.9826280442905</v>
+        <v>121.0710258291161</v>
       </c>
       <c r="X23" t="n">
-        <v>89.26685849624778</v>
+        <v>38.35525628107334</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.26685849624778</v>
+        <v>6.551088948204988</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="C24" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="D24" t="n">
         <v>6.551088948204988</v>
@@ -6069,13 +6069,13 @@
         <v>6.551088948204988</v>
       </c>
       <c r="K24" t="n">
-        <v>19.31537559942708</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="L24" t="n">
-        <v>82.80107536795961</v>
+        <v>70.03678871673756</v>
       </c>
       <c r="M24" t="n">
-        <v>123.9457870371409</v>
+        <v>151.1065144507743</v>
       </c>
       <c r="N24" t="n">
         <v>205.0155127711776</v>
@@ -6105,13 +6105,13 @@
         <v>327.5544474102494</v>
       </c>
       <c r="W24" t="n">
-        <v>244.8386778622066</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="X24" t="n">
-        <v>162.1229083141639</v>
+        <v>254.6983975923333</v>
       </c>
       <c r="Y24" t="n">
-        <v>79.40713876612107</v>
+        <v>171.9826280442905</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="C25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="D25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="E25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="F25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="G25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="H25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="I25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="J25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="K25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="L25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="M25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="N25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="O25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="P25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="R25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="S25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="T25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="U25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="V25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="W25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="X25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="C26" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="D26" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="E26" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="F26" t="n">
         <v>6.551088948204988</v>
@@ -6227,49 +6227,49 @@
         <v>6.551088948204988</v>
       </c>
       <c r="K26" t="n">
-        <v>8.368485276303382</v>
+        <v>8.36848527630341</v>
       </c>
       <c r="L26" t="n">
-        <v>47.52488798442496</v>
+        <v>47.52488798442505</v>
       </c>
       <c r="M26" t="n">
-        <v>122.7633680723962</v>
+        <v>122.7633680723963</v>
       </c>
       <c r="N26" t="n">
-        <v>203.8330938064329</v>
+        <v>203.8330938064331</v>
       </c>
       <c r="O26" t="n">
-        <v>267.0496757028646</v>
+        <v>267.0496757028649</v>
       </c>
       <c r="P26" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="Q26" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="R26" t="n">
-        <v>286.5025649252015</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="S26" t="n">
-        <v>286.5025649252015</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="T26" t="n">
-        <v>286.5025649252015</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="U26" t="n">
-        <v>286.5025649252015</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="V26" t="n">
-        <v>286.5025649252015</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="W26" t="n">
-        <v>203.7867953771587</v>
+        <v>171.9826280442905</v>
       </c>
       <c r="X26" t="n">
-        <v>121.0710258291159</v>
+        <v>171.9826280442905</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.26685849624778</v>
+        <v>171.9826280442905</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="C27" t="n">
-        <v>244.8386778622066</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="D27" t="n">
-        <v>244.8386778622066</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="E27" t="n">
-        <v>244.8386778622066</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="F27" t="n">
-        <v>171.9826280442905</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="G27" t="n">
-        <v>89.26685849624778</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="H27" t="n">
         <v>6.551088948204988</v>
@@ -6309,10 +6309,10 @@
         <v>19.31537559942708</v>
       </c>
       <c r="L27" t="n">
-        <v>82.80107536795961</v>
+        <v>82.80107536795964</v>
       </c>
       <c r="M27" t="n">
-        <v>163.8708011019963</v>
+        <v>163.8708011019964</v>
       </c>
       <c r="N27" t="n">
         <v>205.0155127711776</v>
@@ -6339,16 +6339,16 @@
         <v>327.5544474102494</v>
       </c>
       <c r="V27" t="n">
-        <v>327.5544474102494</v>
+        <v>244.8386778622066</v>
       </c>
       <c r="W27" t="n">
-        <v>327.5544474102494</v>
+        <v>162.1229083141639</v>
       </c>
       <c r="X27" t="n">
-        <v>327.5544474102494</v>
+        <v>79.40713876612107</v>
       </c>
       <c r="Y27" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
     </row>
     <row r="28">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.551088948204988</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="C29" t="n">
-        <v>6.551088948204988</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="D29" t="n">
-        <v>6.551088948204988</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="E29" t="n">
-        <v>6.551088948204988</v>
+        <v>38.35525628107345</v>
       </c>
       <c r="F29" t="n">
-        <v>6.551088948204988</v>
+        <v>38.35525628107345</v>
       </c>
       <c r="G29" t="n">
-        <v>6.551088948204988</v>
+        <v>38.35525628107345</v>
       </c>
       <c r="H29" t="n">
-        <v>6.551088948204988</v>
+        <v>38.35525628107345</v>
       </c>
       <c r="I29" t="n">
-        <v>6.551088948204988</v>
+        <v>38.35525628107345</v>
       </c>
       <c r="J29" t="n">
         <v>6.551088948204988</v>
       </c>
       <c r="K29" t="n">
-        <v>8.368485276303382</v>
+        <v>8.36848527630341</v>
       </c>
       <c r="L29" t="n">
-        <v>47.52488798442496</v>
+        <v>47.52488798442505</v>
       </c>
       <c r="M29" t="n">
-        <v>122.7633680723962</v>
+        <v>122.7633680723963</v>
       </c>
       <c r="N29" t="n">
-        <v>203.8330938064329</v>
+        <v>203.8330938064331</v>
       </c>
       <c r="O29" t="n">
-        <v>267.0496757028646</v>
+        <v>267.049675702865</v>
       </c>
       <c r="P29" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252018</v>
       </c>
       <c r="Q29" t="n">
-        <v>252.25663397311</v>
+        <v>286.5025649252018</v>
       </c>
       <c r="R29" t="n">
-        <v>169.5408644250672</v>
+        <v>203.786795377159</v>
       </c>
       <c r="S29" t="n">
-        <v>169.5408644250672</v>
+        <v>203.786795377159</v>
       </c>
       <c r="T29" t="n">
-        <v>169.5408644250672</v>
+        <v>203.786795377159</v>
       </c>
       <c r="U29" t="n">
-        <v>86.82509487702445</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="V29" t="n">
-        <v>86.82509487702445</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="W29" t="n">
-        <v>6.551088948204988</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="X29" t="n">
-        <v>6.551088948204988</v>
+        <v>121.0710258291162</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.551088948204988</v>
+        <v>121.0710258291162</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>254.6983975923333</v>
+        <v>171.9826280442905</v>
       </c>
       <c r="C30" t="n">
-        <v>254.6983975923333</v>
+        <v>171.9826280442905</v>
       </c>
       <c r="D30" t="n">
         <v>171.9826280442905</v>
@@ -6528,7 +6528,7 @@
         <v>89.26685849624778</v>
       </c>
       <c r="F30" t="n">
-        <v>6.551088948204988</v>
+        <v>89.26685849624778</v>
       </c>
       <c r="G30" t="n">
         <v>6.551088948204988</v>
@@ -6543,13 +6543,13 @@
         <v>6.551088948204988</v>
       </c>
       <c r="K30" t="n">
-        <v>6.551088948204988</v>
+        <v>19.31537559942708</v>
       </c>
       <c r="L30" t="n">
-        <v>70.03678871673753</v>
+        <v>82.80107536795964</v>
       </c>
       <c r="M30" t="n">
-        <v>123.9457870371409</v>
+        <v>163.8708011019964</v>
       </c>
       <c r="N30" t="n">
         <v>205.0155127711776</v>
@@ -6576,16 +6576,16 @@
         <v>327.5544474102494</v>
       </c>
       <c r="V30" t="n">
-        <v>327.5544474102494</v>
+        <v>244.8386778622066</v>
       </c>
       <c r="W30" t="n">
-        <v>327.5544474102494</v>
+        <v>171.9826280442905</v>
       </c>
       <c r="X30" t="n">
-        <v>327.5544474102494</v>
+        <v>171.9826280442905</v>
       </c>
       <c r="Y30" t="n">
-        <v>254.6983975923333</v>
+        <v>171.9826280442905</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="C31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="D31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="E31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="F31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="G31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="H31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="I31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="J31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="K31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="L31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="M31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="N31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="O31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="P31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="R31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="S31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="T31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="U31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="V31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="W31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="X31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.551088948204988</v>
+        <v>327.5544474102494</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>171.9826280442905</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="C32" t="n">
-        <v>89.26685849624778</v>
+        <v>203.7867953771589</v>
       </c>
       <c r="D32" t="n">
-        <v>89.26685849624778</v>
+        <v>121.0710258291161</v>
       </c>
       <c r="E32" t="n">
         <v>89.26685849624778</v>
@@ -6701,49 +6701,49 @@
         <v>6.551088948204988</v>
       </c>
       <c r="K32" t="n">
-        <v>8.368485276303382</v>
+        <v>8.36848527630341</v>
       </c>
       <c r="L32" t="n">
-        <v>47.52488798442496</v>
+        <v>47.52488798442505</v>
       </c>
       <c r="M32" t="n">
-        <v>122.7633680723962</v>
+        <v>122.7633680723963</v>
       </c>
       <c r="N32" t="n">
-        <v>203.8330938064329</v>
+        <v>203.8330938064331</v>
       </c>
       <c r="O32" t="n">
-        <v>267.0496757028646</v>
+        <v>267.0496757028649</v>
       </c>
       <c r="P32" t="n">
-        <v>286.5025649252015</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="Q32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="R32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="S32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="T32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="U32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="V32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="W32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="X32" t="n">
-        <v>254.6983975923333</v>
+        <v>286.5025649252017</v>
       </c>
       <c r="Y32" t="n">
-        <v>171.9826280442905</v>
+        <v>286.5025649252017</v>
       </c>
     </row>
     <row r="33">
@@ -6783,13 +6783,13 @@
         <v>19.31537559942708</v>
       </c>
       <c r="L33" t="n">
-        <v>82.80107536795961</v>
+        <v>82.80107536795964</v>
       </c>
       <c r="M33" t="n">
-        <v>163.8708011019963</v>
+        <v>163.8708011019964</v>
       </c>
       <c r="N33" t="n">
-        <v>244.9405268360331</v>
+        <v>205.0155127711776</v>
       </c>
       <c r="O33" t="n">
         <v>283.7201242337214</v>
@@ -6804,7 +6804,7 @@
         <v>327.5544474102494</v>
       </c>
       <c r="S33" t="n">
-        <v>254.6983975923333</v>
+        <v>327.5544474102494</v>
       </c>
       <c r="T33" t="n">
         <v>254.6983975923333</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="C34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="D34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="E34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="F34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="G34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="H34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="I34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="J34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="K34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="L34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="M34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="N34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="O34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="P34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="Q34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="R34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="S34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="T34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="U34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="V34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="W34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="X34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
       <c r="Y34" t="n">
-        <v>327.5544474102494</v>
+        <v>6.551088948204988</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.37248083812809</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="C35" t="n">
-        <v>29.37248083812809</v>
+        <v>235.6066108900915</v>
       </c>
       <c r="D35" t="n">
-        <v>29.37248083812809</v>
+        <v>235.6066108900915</v>
       </c>
       <c r="E35" t="n">
-        <v>29.37248083812809</v>
+        <v>159.0910838408282</v>
       </c>
       <c r="F35" t="n">
-        <v>29.37248083812809</v>
+        <v>82.57555679156492</v>
       </c>
       <c r="G35" t="n">
-        <v>29.37248083812809</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="H35" t="n">
-        <v>29.37248083812809</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="I35" t="n">
-        <v>29.37248083812809</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="J35" t="n">
-        <v>29.37248083812809</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="K35" t="n">
-        <v>31.18987716622649</v>
+        <v>7.877426070400073</v>
       </c>
       <c r="L35" t="n">
-        <v>70.34627987434807</v>
+        <v>47.03382877852171</v>
       </c>
       <c r="M35" t="n">
-        <v>145.339147935331</v>
+        <v>122.0266968395046</v>
       </c>
       <c r="N35" t="n">
-        <v>220.3320159963139</v>
+        <v>197.0195649004875</v>
       </c>
       <c r="O35" t="n">
-        <v>283.5485978927456</v>
+        <v>260.2361467969193</v>
       </c>
       <c r="P35" t="n">
-        <v>303.0014871150825</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="Q35" t="n">
-        <v>268.755556162991</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="R35" t="n">
-        <v>192.2400291137278</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="S35" t="n">
-        <v>115.7245020644645</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="T35" t="n">
-        <v>39.20897501520125</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="U35" t="n">
-        <v>29.37248083812809</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="V35" t="n">
-        <v>29.37248083812809</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="W35" t="n">
-        <v>29.37248083812809</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="X35" t="n">
-        <v>29.37248083812809</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.37248083812809</v>
+        <v>279.6890360192562</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>205.4502369573666</v>
+        <v>281.9657640066299</v>
       </c>
       <c r="C36" t="n">
-        <v>128.9347099081033</v>
+        <v>205.4502369573667</v>
       </c>
       <c r="D36" t="n">
-        <v>52.41918285884009</v>
+        <v>128.9347099081034</v>
       </c>
       <c r="E36" t="n">
-        <v>52.41918285884009</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="F36" t="n">
-        <v>6.06002974230165</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="G36" t="n">
         <v>6.06002974230165</v>
@@ -7020,7 +7020,7 @@
         <v>18.82431639352374</v>
       </c>
       <c r="L36" t="n">
-        <v>82.31001616205629</v>
+        <v>34.18855975560581</v>
       </c>
       <c r="M36" t="n">
         <v>109.1814278165887</v>
@@ -7029,7 +7029,7 @@
         <v>184.1742958775716</v>
       </c>
       <c r="O36" t="n">
-        <v>259.1671639385545</v>
+        <v>259.1671639385546</v>
       </c>
       <c r="P36" t="n">
         <v>303.0014871150825</v>
@@ -7059,7 +7059,7 @@
         <v>281.9657640066299</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.4502369573666</v>
+        <v>281.9657640066299</v>
       </c>
     </row>
     <row r="37">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.14245487146619</v>
+        <v>192.3953213898737</v>
       </c>
       <c r="C38" t="n">
-        <v>50.14245487146619</v>
+        <v>115.8797943406105</v>
       </c>
       <c r="D38" t="n">
-        <v>50.14245487146619</v>
+        <v>39.36426729134723</v>
       </c>
       <c r="E38" t="n">
-        <v>50.14245487146619</v>
+        <v>39.36426729134723</v>
       </c>
       <c r="F38" t="n">
-        <v>50.14245487146619</v>
+        <v>39.36426729134723</v>
       </c>
       <c r="G38" t="n">
-        <v>50.14245487146619</v>
+        <v>39.36426729134723</v>
       </c>
       <c r="H38" t="n">
-        <v>6.060029742301651</v>
+        <v>39.36426729134723</v>
       </c>
       <c r="I38" t="n">
-        <v>6.060029742301651</v>
+        <v>39.36426729134723</v>
       </c>
       <c r="J38" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="K38" t="n">
-        <v>7.877426070400046</v>
+        <v>7.877426070400073</v>
       </c>
       <c r="L38" t="n">
-        <v>47.03382877852163</v>
+        <v>47.03382877852171</v>
       </c>
       <c r="M38" t="n">
         <v>122.0266968395046</v>
@@ -7187,37 +7187,37 @@
         <v>197.0195649004875</v>
       </c>
       <c r="O38" t="n">
-        <v>260.2361467969192</v>
+        <v>260.2361467969193</v>
       </c>
       <c r="P38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="Q38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="R38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="S38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="T38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="U38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="V38" t="n">
-        <v>279.689036019256</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="W38" t="n">
-        <v>203.1735089699928</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="X38" t="n">
-        <v>126.6579819207295</v>
+        <v>279.6890360192562</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.14245487146619</v>
+        <v>268.910848439137</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="C39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="D39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="E39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="F39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="G39" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="H39" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="I39" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="J39" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="K39" t="n">
         <v>18.82431639352374</v>
       </c>
       <c r="L39" t="n">
-        <v>82.31001616205629</v>
+        <v>82.31001616205631</v>
       </c>
       <c r="M39" t="n">
-        <v>157.3028842230392</v>
+        <v>109.1814278165887</v>
       </c>
       <c r="N39" t="n">
-        <v>232.2957522840221</v>
+        <v>184.1742958775716</v>
       </c>
       <c r="O39" t="n">
         <v>259.1671639385546</v>
       </c>
       <c r="P39" t="n">
-        <v>303.0014871150826</v>
+        <v>303.0014871150825</v>
       </c>
       <c r="Q39" t="n">
-        <v>303.0014871150826</v>
+        <v>281.9657640066299</v>
       </c>
       <c r="R39" t="n">
-        <v>226.4859600658193</v>
+        <v>205.4502369573667</v>
       </c>
       <c r="S39" t="n">
-        <v>149.970433016556</v>
+        <v>128.9347099081034</v>
       </c>
       <c r="T39" t="n">
-        <v>73.45490596729272</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="U39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="V39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="W39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="X39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.060029742301651</v>
+        <v>52.41918285884013</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="C40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="D40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="E40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="F40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="G40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="H40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="I40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="J40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="K40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="L40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="M40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="N40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="O40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="P40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="R40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="S40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="T40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="U40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="V40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="W40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="X40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.060029742301651</v>
+        <v>6.06002974230165</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275893</v>
       </c>
       <c r="C41" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275893</v>
       </c>
       <c r="D41" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275893</v>
       </c>
       <c r="E41" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275893</v>
       </c>
       <c r="F41" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297522</v>
       </c>
       <c r="G41" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297522</v>
       </c>
       <c r="H41" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297522</v>
       </c>
       <c r="I41" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297522</v>
       </c>
       <c r="J41" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297522</v>
       </c>
       <c r="K41" t="n">
-        <v>6.925806986395913</v>
+        <v>6.925806986395945</v>
       </c>
       <c r="L41" t="n">
-        <v>46.08220969451749</v>
+        <v>46.08220969451759</v>
       </c>
       <c r="M41" t="n">
-        <v>109.2987915909493</v>
+        <v>109.2987915909494</v>
       </c>
       <c r="N41" t="n">
-        <v>172.5153734873811</v>
+        <v>172.5153734873813</v>
       </c>
       <c r="O41" t="n">
-        <v>235.7319553838129</v>
+        <v>235.7319553838131</v>
       </c>
       <c r="P41" t="n">
-        <v>255.1848446061497</v>
+        <v>255.18484460615</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.1848446061497</v>
+        <v>255.18484460615</v>
       </c>
       <c r="R41" t="n">
-        <v>255.1848446061497</v>
+        <v>255.18484460615</v>
       </c>
       <c r="S41" t="n">
-        <v>255.1848446061497</v>
+        <v>255.18484460615</v>
       </c>
       <c r="T41" t="n">
-        <v>198.6088143816884</v>
+        <v>255.18484460615</v>
       </c>
       <c r="U41" t="n">
-        <v>134.1086798072248</v>
+        <v>190.6847100316863</v>
       </c>
       <c r="V41" t="n">
-        <v>69.60854523276114</v>
+        <v>126.1845754572226</v>
       </c>
       <c r="W41" t="n">
-        <v>69.60854523276114</v>
+        <v>61.68444088275893</v>
       </c>
       <c r="X41" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275893</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.108410658297519</v>
+        <v>61.68444088275893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="C42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="D42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="E42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="F42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="G42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="H42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="I42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="J42" t="n">
-        <v>5.108410658297519</v>
+        <v>5.108410658297522</v>
       </c>
       <c r="K42" t="n">
         <v>17.87269730951961</v>
       </c>
       <c r="L42" t="n">
-        <v>21.9364640490526</v>
+        <v>81.08927920595144</v>
       </c>
       <c r="M42" t="n">
-        <v>85.15304594548439</v>
+        <v>144.3058611023833</v>
       </c>
       <c r="N42" t="n">
-        <v>148.3696278419162</v>
+        <v>148.3696278419163</v>
       </c>
       <c r="O42" t="n">
-        <v>211.586209738348</v>
+        <v>211.5862097383482</v>
       </c>
       <c r="P42" t="n">
-        <v>255.4205329148759</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="Q42" t="n">
-        <v>234.3848098064233</v>
+        <v>237.6445155829557</v>
       </c>
       <c r="R42" t="n">
-        <v>169.8846752319597</v>
+        <v>237.6445155829557</v>
       </c>
       <c r="S42" t="n">
-        <v>105.3845406574961</v>
+        <v>237.6445155829557</v>
       </c>
       <c r="T42" t="n">
-        <v>40.88440608303245</v>
+        <v>237.6445155829557</v>
       </c>
       <c r="U42" t="n">
-        <v>5.108410658297519</v>
+        <v>173.144381008492</v>
       </c>
       <c r="V42" t="n">
-        <v>5.108410658297519</v>
+        <v>108.6442464340284</v>
       </c>
       <c r="W42" t="n">
-        <v>5.108410658297519</v>
+        <v>108.6442464340284</v>
       </c>
       <c r="X42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
       <c r="Y42" t="n">
-        <v>5.108410658297519</v>
+        <v>44.1441118595647</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="C43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="D43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="E43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="F43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="G43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="H43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="I43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="J43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="K43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="L43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="M43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="N43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="O43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="P43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="R43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="S43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="T43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="U43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="V43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="W43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="X43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.108410658297519</v>
+        <v>255.4205329148761</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>190.1786254602109</v>
+        <v>69.33809885022296</v>
       </c>
       <c r="C44" t="n">
-        <v>190.1786254602109</v>
+        <v>69.33809885022296</v>
       </c>
       <c r="D44" t="n">
-        <v>190.1786254602109</v>
+        <v>69.33809885022296</v>
       </c>
       <c r="E44" t="n">
-        <v>190.1786254602109</v>
+        <v>69.33809885022296</v>
       </c>
       <c r="F44" t="n">
-        <v>190.1786254602109</v>
+        <v>69.33809885022296</v>
       </c>
       <c r="G44" t="n">
-        <v>125.9290898317612</v>
+        <v>69.33809885022296</v>
       </c>
       <c r="H44" t="n">
-        <v>61.6795542033116</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="I44" t="n">
-        <v>5.08856322177321</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="J44" t="n">
-        <v>5.08856322177321</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="K44" t="n">
         <v>6.905959549871682</v>
       </c>
       <c r="L44" t="n">
-        <v>46.06236225799321</v>
+        <v>46.06236225799336</v>
       </c>
       <c r="M44" t="n">
-        <v>109.0333321274367</v>
+        <v>109.0333321274369</v>
       </c>
       <c r="N44" t="n">
-        <v>172.0043019968802</v>
+        <v>172.0043019968805</v>
       </c>
       <c r="O44" t="n">
-        <v>234.9752718663237</v>
+        <v>234.9752718663242</v>
       </c>
       <c r="P44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="R44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="S44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="T44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="V44" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="W44" t="n">
-        <v>254.4281610886605</v>
+        <v>190.1786254602113</v>
       </c>
       <c r="X44" t="n">
-        <v>254.4281610886605</v>
+        <v>125.9290898317615</v>
       </c>
       <c r="Y44" t="n">
-        <v>254.4281610886605</v>
+        <v>69.33809885022296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.9290898317612</v>
+        <v>104.8933667233089</v>
       </c>
       <c r="C45" t="n">
-        <v>125.9290898317612</v>
+        <v>104.8933667233089</v>
       </c>
       <c r="D45" t="n">
-        <v>125.9290898317612</v>
+        <v>40.64383109485917</v>
       </c>
       <c r="E45" t="n">
-        <v>61.6795542033116</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="F45" t="n">
-        <v>61.6795542033116</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="G45" t="n">
-        <v>5.08856322177321</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="H45" t="n">
-        <v>5.08856322177321</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="I45" t="n">
-        <v>5.08856322177321</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="J45" t="n">
-        <v>5.08856322177321</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="K45" t="n">
-        <v>17.8528498729953</v>
+        <v>17.85284987299531</v>
       </c>
       <c r="L45" t="n">
-        <v>21.68092830380212</v>
+        <v>80.8238197424389</v>
       </c>
       <c r="M45" t="n">
-        <v>84.6518981732456</v>
+        <v>143.7947896118825</v>
       </c>
       <c r="N45" t="n">
-        <v>147.6228680426891</v>
+        <v>206.7657594813261</v>
       </c>
       <c r="O45" t="n">
-        <v>210.5938379121326</v>
+        <v>254.428161088661</v>
       </c>
       <c r="P45" t="n">
-        <v>254.4281610886605</v>
+        <v>254.428161088661</v>
       </c>
       <c r="Q45" t="n">
-        <v>254.4281610886605</v>
+        <v>233.3924379802084</v>
       </c>
       <c r="R45" t="n">
-        <v>254.4281610886605</v>
+        <v>233.3924379802084</v>
       </c>
       <c r="S45" t="n">
-        <v>254.4281610886605</v>
+        <v>233.3924379802084</v>
       </c>
       <c r="T45" t="n">
-        <v>254.4281610886605</v>
+        <v>233.3924379802084</v>
       </c>
       <c r="U45" t="n">
-        <v>254.4281610886605</v>
+        <v>169.1429023517587</v>
       </c>
       <c r="V45" t="n">
-        <v>254.4281610886605</v>
+        <v>169.1429023517587</v>
       </c>
       <c r="W45" t="n">
-        <v>190.1786254602109</v>
+        <v>169.1429023517587</v>
       </c>
       <c r="X45" t="n">
-        <v>190.1786254602109</v>
+        <v>169.1429023517587</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.9290898317612</v>
+        <v>169.1429023517587</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="C46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="D46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="E46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="F46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="G46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="H46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="I46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="J46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="K46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="L46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="M46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="N46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="O46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="P46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="Q46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="R46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="S46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="T46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="U46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="V46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="W46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="X46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
       <c r="Y46" t="n">
-        <v>254.4281610886605</v>
+        <v>5.08856322177322</v>
       </c>
     </row>
   </sheetData>
@@ -22805,28 +22805,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>134.8218408634681</v>
@@ -22881,13 +22881,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K6" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,10 +22902,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>102.9682853879423</v>
@@ -22963,25 +22963,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q7" t="n">
         <v>103.2119976362414</v>
@@ -23042,13 +23042,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J8" t="n">
-        <v>69.70579724700552</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K8" t="n">
-        <v>53.2198921781025</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L8" t="n">
-        <v>28.74947534450561</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23057,10 +23057,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.069265482343752</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P8" t="n">
-        <v>42.5899040814341</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q8" t="n">
         <v>80.64258426171736</v>
@@ -23118,13 +23118,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I9" t="n">
-        <v>75.35636030051943</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J9" t="n">
-        <v>60.52422152698377</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K9" t="n">
-        <v>24.5012673468716</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.38587124096642</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R9" t="n">
         <v>102.1006281848752</v>
@@ -23200,25 +23200,25 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J10" t="n">
-        <v>85.3925221358497</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K10" t="n">
         <v>60.64691470913344</v>
       </c>
       <c r="L10" t="n">
-        <v>47.39929435887773</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M10" t="n">
-        <v>46.68471506615326</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N10" t="n">
-        <v>37.63776203285605</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O10" t="n">
-        <v>55.28283671961445</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P10" t="n">
-        <v>66.55853351624532</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q10" t="n">
         <v>102.230949233282</v>
@@ -23264,10 +23264,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>318.0752368435428</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>383.8369709930499</v>
       </c>
       <c r="G11" t="n">
         <v>413.5580907974734</v>
@@ -23279,7 +23279,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J11" t="n">
-        <v>32.97119517355515</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>33.90347164257051</v>
       </c>
       <c r="R11" t="n">
-        <v>49.98310351360504</v>
+        <v>42.13824020710269</v>
       </c>
       <c r="S11" t="n">
-        <v>105.4087992788127</v>
+        <v>105.4087992788126</v>
       </c>
       <c r="T11" t="n">
-        <v>151.6035253288487</v>
+        <v>215.4586585575677</v>
       </c>
       <c r="U11" t="n">
-        <v>187.3509479417046</v>
+        <v>251.2060811704236</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>93.78994722668196</v>
+        <v>122.2268449849133</v>
       </c>
       <c r="F12" t="n">
-        <v>81.21407916466489</v>
+        <v>81.21407916466487</v>
       </c>
       <c r="G12" t="n">
-        <v>136.4100488746052</v>
+        <v>72.55491564588618</v>
       </c>
       <c r="H12" t="n">
-        <v>39.3649725362459</v>
+        <v>103.2201057649649</v>
       </c>
       <c r="I12" t="n">
-        <v>11.13962924182515</v>
+        <v>67.38323058968081</v>
       </c>
       <c r="J12" t="n">
         <v>38.64534418925452</v>
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.82536587736807</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>87.7225868872151</v>
+        <v>23.8674536584961</v>
       </c>
       <c r="S12" t="n">
         <v>154.3444070589077</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>384.7692474620651</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5580907974734</v>
+        <v>349.7029575687544</v>
       </c>
       <c r="H14" t="n">
-        <v>321.6074389185153</v>
+        <v>257.7523056897963</v>
       </c>
       <c r="I14" t="n">
         <v>143.2153969877571</v>
       </c>
       <c r="J14" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.90347164257051</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>49.98310351360504</v>
+        <v>105.9933734358217</v>
       </c>
       <c r="S14" t="n">
-        <v>105.4087992788127</v>
+        <v>169.2639325075316</v>
       </c>
       <c r="T14" t="n">
-        <v>151.6035253288487</v>
+        <v>215.4586585575677</v>
       </c>
       <c r="U14" t="n">
-        <v>187.3509479417046</v>
+        <v>251.2060811704236</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>322.3828054273346</v>
       </c>
     </row>
     <row r="15">
@@ -23595,7 +23595,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J15" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,22 +23616,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R15" t="n">
-        <v>23.86745365849612</v>
+        <v>31.47898553935938</v>
       </c>
       <c r="S15" t="n">
-        <v>90.48927383018869</v>
+        <v>90.48927383018867</v>
       </c>
       <c r="T15" t="n">
         <v>132.547063197557</v>
       </c>
       <c r="U15" t="n">
-        <v>190.461734223079</v>
+        <v>225.8799696935666</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>168.9454539207063</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23674,28 +23674,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J16" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K16" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L16" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M16" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N16" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O16" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P16" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R16" t="n">
         <v>142.1053686221429</v>
@@ -23753,7 +23753,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J17" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,31 +23774,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.90347164257051</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.35177255794876</v>
+        <v>105.9933734358217</v>
       </c>
       <c r="S17" t="n">
-        <v>93.51356072876106</v>
+        <v>169.2639325075316</v>
       </c>
       <c r="T17" t="n">
-        <v>139.7082867787971</v>
+        <v>215.4586585575677</v>
       </c>
       <c r="U17" t="n">
         <v>175.455709391653</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>252.0018866913643</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>273.4905969386425</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>376.4998094207508</v>
       </c>
     </row>
     <row r="18">
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>90.78281187109677</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>96.95812720954517</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>93.18236279017594</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23829,10 +23829,10 @@
         <v>103.2201057649649</v>
       </c>
       <c r="I18" t="n">
-        <v>60.13301319356229</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.97221510844452</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S18" t="n">
-        <v>78.59403528013709</v>
+        <v>154.3444070589077</v>
       </c>
       <c r="T18" t="n">
-        <v>120.6518246475054</v>
+        <v>196.402196426276</v>
       </c>
       <c r="U18" t="n">
         <v>225.8799696935666</v>
@@ -23911,28 +23911,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J19" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K19" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L19" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M19" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N19" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O19" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P19" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R19" t="n">
         <v>142.1053686221429</v>
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>321.8892579493592</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>305.9319053369373</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>330.877581006387</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.5580907974734</v>
+        <v>337.5596260621489</v>
       </c>
       <c r="H20" t="n">
-        <v>321.6074389185153</v>
+        <v>245.6089741831908</v>
       </c>
       <c r="I20" t="n">
-        <v>143.2153969877571</v>
+        <v>67.21693225243261</v>
       </c>
       <c r="J20" t="n">
-        <v>32.97119517355515</v>
+        <v>23.49103299447713</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.90347164257051</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>105.9933734358217</v>
@@ -24026,7 +24026,7 @@
         <v>251.2060811704236</v>
       </c>
       <c r="V20" t="n">
-        <v>251.7537937348104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.53471891454288</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,13 +24054,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>81.64661572007648</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>69.47060113573141</v>
+        <v>136.4100488746052</v>
       </c>
       <c r="H21" t="n">
         <v>103.2201057649649</v>
@@ -24069,7 +24069,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J21" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,31 +24090,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R21" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S21" t="n">
         <v>154.3444070589077</v>
       </c>
       <c r="T21" t="n">
-        <v>120.4037316909515</v>
+        <v>196.402196426276</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8799696935666</v>
+        <v>149.8815049582421</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>175.6965184255951</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>138.8335374646036</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>129.6842310419798</v>
       </c>
     </row>
     <row r="22">
@@ -24148,28 +24148,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J22" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K22" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L22" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M22" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N22" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O22" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P22" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R22" t="n">
         <v>142.1053686221429</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>300.0417582196994</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24227,7 +24227,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J23" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.90347164257051</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R23" t="n">
         <v>105.9933734358217</v>
@@ -24257,10 +24257,10 @@
         <v>169.2639325075316</v>
       </c>
       <c r="T23" t="n">
-        <v>215.4586585575677</v>
+        <v>133.5700467050054</v>
       </c>
       <c r="U23" t="n">
-        <v>219.7199555108841</v>
+        <v>251.2060811704236</v>
       </c>
       <c r="V23" t="n">
         <v>245.8636466175726</v>
@@ -24272,7 +24272,7 @@
         <v>287.8424888259067</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>354.7518129965139</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.40569433013043</v>
+        <v>84.64457179730499</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>65.5564537120764</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24306,7 +24306,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J24" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,10 +24327,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R24" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S24" t="n">
         <v>154.3444070589077</v>
@@ -24345,10 +24345,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>169.8063713083573</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>123.8843733509151</v>
+        <v>133.6454958837406</v>
       </c>
       <c r="Y24" t="n">
         <v>123.794083924742</v>
@@ -24385,28 +24385,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J25" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K25" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L25" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M25" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N25" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O25" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P25" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R25" t="n">
         <v>142.1053686221429</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>324.9874338891491</v>
       </c>
       <c r="G26" t="n">
         <v>413.5580907974734</v>
@@ -24464,7 +24464,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J26" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.90347164257051</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R26" t="n">
-        <v>105.9933734358217</v>
+        <v>24.10476158325933</v>
       </c>
       <c r="S26" t="n">
         <v>169.2639325075316</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>267.3523568648507</v>
+        <v>317.7548430578734</v>
       </c>
       <c r="X26" t="n">
-        <v>287.8424888259067</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.7518129965142</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>90.81988713575339</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>72.94172307364697</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>54.52143702204285</v>
+        <v>136.4100488746052</v>
       </c>
       <c r="H27" t="n">
-        <v>21.33149391240254</v>
+        <v>103.2201057649649</v>
       </c>
       <c r="I27" t="n">
         <v>67.38323058968081</v>
       </c>
       <c r="J27" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,10 +24564,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R27" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S27" t="n">
         <v>154.3444070589077</v>
@@ -24579,16 +24579,16 @@
         <v>225.8799696935666</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>150.9119752968629</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>169.8063713083573</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>123.8843733509151</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>133.5552064575675</v>
       </c>
     </row>
     <row r="28">
@@ -24622,28 +24622,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J28" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K28" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L28" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M28" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N28" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O28" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P28" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R28" t="n">
         <v>142.1053686221429</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>300.0417582196994</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24701,7 +24701,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J29" t="n">
-        <v>32.97119517355515</v>
+        <v>1.48506951401534</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R29" t="n">
-        <v>24.10476158325935</v>
+        <v>24.10476158325933</v>
       </c>
       <c r="S29" t="n">
         <v>169.2639325075316</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>269.7697028478817</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,16 +24762,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>65.5564537120764</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>75.75646860283859</v>
       </c>
       <c r="F30" t="n">
-        <v>63.18060054082153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.4100488746052</v>
+        <v>54.52143702204285</v>
       </c>
       <c r="H30" t="n">
         <v>103.2201057649649</v>
@@ -24780,7 +24780,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J30" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,10 +24801,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R30" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S30" t="n">
         <v>154.3444070589077</v>
@@ -24816,16 +24816,16 @@
         <v>225.8799696935666</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>150.9119752968629</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>179.5674938411827</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>133.5552064575675</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24859,28 +24859,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J31" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K31" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L31" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M31" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N31" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O31" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P31" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R31" t="n">
         <v>142.1053686221429</v>
@@ -24920,10 +24920,10 @@
         <v>283.3842799184452</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>272.7944297681206</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>350.4442444127221</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J32" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.417345983031058</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R32" t="n">
         <v>105.9933734358217</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.3493268034912</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25017,7 +25017,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J33" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,16 +25038,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.82536587736807</v>
+        <v>20.82536587736806</v>
       </c>
       <c r="R33" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S33" t="n">
-        <v>82.21691773917077</v>
+        <v>154.3444070589077</v>
       </c>
       <c r="T33" t="n">
-        <v>196.402196426276</v>
+        <v>124.2747071065391</v>
       </c>
       <c r="U33" t="n">
         <v>225.8799696935666</v>
@@ -25096,28 +25096,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J34" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K34" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L34" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M34" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N34" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O34" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P34" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R34" t="n">
         <v>142.1053686221429</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>321.6312908931345</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>306.1799982934912</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>331.1256739629408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5580907974734</v>
+        <v>337.8077190187028</v>
       </c>
       <c r="H35" t="n">
         <v>321.6074389185153</v>
@@ -25175,7 +25175,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J35" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R35" t="n">
-        <v>30.24300165705108</v>
+        <v>105.9933734358217</v>
       </c>
       <c r="S35" t="n">
-        <v>93.51356072876104</v>
+        <v>169.2639325075316</v>
       </c>
       <c r="T35" t="n">
-        <v>139.7082867787971</v>
+        <v>215.4586585575677</v>
       </c>
       <c r="U35" t="n">
-        <v>241.4679519351212</v>
+        <v>251.2060811704236</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,19 +25233,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>96.95812720954513</v>
+        <v>96.95812720954511</v>
       </c>
       <c r="D36" t="n">
-        <v>71.69469378586814</v>
+        <v>71.69469378586813</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>81.89470867663032</v>
       </c>
       <c r="F36" t="n">
-        <v>99.17365080801082</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.4100488746052</v>
+        <v>90.51448728923211</v>
       </c>
       <c r="H36" t="n">
         <v>103.2201057649649</v>
@@ -25254,7 +25254,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J36" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S36" t="n">
         <v>154.3444070589077</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>129.9323239985337</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25333,28 +25333,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J37" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K37" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L37" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M37" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N37" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O37" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P37" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R37" t="n">
         <v>142.1053686221429</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>306.98346988471</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>289.5225199922369</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>278.9326698419123</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,13 +25406,13 @@
         <v>413.5580907974734</v>
       </c>
       <c r="H38" t="n">
-        <v>277.9658380406424</v>
+        <v>321.6074389185153</v>
       </c>
       <c r="I38" t="n">
         <v>143.2153969877571</v>
       </c>
       <c r="J38" t="n">
-        <v>32.97119517355515</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.90347164257051</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R38" t="n">
         <v>105.9933734358217</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>273.4905969386424</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>293.9807288996984</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>310.4875668772829</v>
+        <v>375.5675329517356</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.4100488746052</v>
+        <v>90.51448728923211</v>
       </c>
       <c r="H39" t="n">
         <v>103.2201057649649</v>
@@ -25491,7 +25491,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J39" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25512,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.82536587736807</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>11.97221510844446</v>
       </c>
       <c r="S39" t="n">
-        <v>78.59403528013704</v>
+        <v>78.59403528013705</v>
       </c>
       <c r="T39" t="n">
         <v>120.6518246475053</v>
       </c>
       <c r="U39" t="n">
-        <v>159.1590422308254</v>
+        <v>225.8799696935666</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25570,28 +25570,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J40" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K40" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L40" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M40" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N40" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O40" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P40" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R40" t="n">
         <v>142.1053686221429</v>
@@ -25637,7 +25637,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>350.8657758194946</v>
       </c>
       <c r="G41" t="n">
         <v>413.5580907974734</v>
@@ -25649,7 +25649,7 @@
         <v>143.2153969877571</v>
       </c>
       <c r="J41" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.90347164257051</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R41" t="n">
         <v>105.9933734358217</v>
@@ -25679,19 +25679,19 @@
         <v>169.2639325075316</v>
       </c>
       <c r="T41" t="n">
-        <v>159.4483886353511</v>
+        <v>215.4586585575677</v>
       </c>
       <c r="U41" t="n">
-        <v>187.3509479417046</v>
+        <v>187.3509479417045</v>
       </c>
       <c r="V41" t="n">
         <v>263.8971252414159</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>285.385835488694</v>
       </c>
       <c r="X41" t="n">
-        <v>305.8759674497501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25728,7 +25728,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J42" t="n">
-        <v>38.64534418925452</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,28 +25749,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>3.227108718766836</v>
       </c>
       <c r="R42" t="n">
-        <v>23.86745365849612</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S42" t="n">
-        <v>90.48927383018869</v>
+        <v>154.3444070589077</v>
       </c>
       <c r="T42" t="n">
-        <v>132.547063197557</v>
+        <v>196.402196426276</v>
       </c>
       <c r="U42" t="n">
-        <v>190.461734223079</v>
+        <v>162.0248364648475</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>168.9454539207062</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>141.9178519747584</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25807,28 +25807,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J43" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K43" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L43" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M43" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N43" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O43" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P43" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R43" t="n">
         <v>142.1053686221429</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319.1268013913154</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,16 +25877,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>349.9510505253083</v>
+        <v>413.5580907974734</v>
       </c>
       <c r="H44" t="n">
-        <v>258.0003986463502</v>
+        <v>258.00039864635</v>
       </c>
       <c r="I44" t="n">
-        <v>87.19031591603412</v>
+        <v>143.2153969877571</v>
       </c>
       <c r="J44" t="n">
-        <v>32.97119517355515</v>
+        <v>32.97119517355512</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.90347164257051</v>
+        <v>33.90347164257048</v>
       </c>
       <c r="R44" t="n">
         <v>105.9933734358217</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>285.6339284452478</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>306.1240604063038</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>330.2128575843304</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>102.9261433777021</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>83.8380252924735</v>
       </c>
       <c r="E45" t="n">
-        <v>94.03804018323581</v>
+        <v>122.4453652610459</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>80.3849678028822</v>
+        <v>136.4100488746052</v>
       </c>
       <c r="H45" t="n">
         <v>103.2201057649649</v>
@@ -25965,7 +25965,7 @@
         <v>67.38323058968081</v>
       </c>
       <c r="J45" t="n">
-        <v>38.64534418925452</v>
+        <v>38.6453441892545</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,10 +25986,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.82536587736807</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>87.7225868872151</v>
+        <v>87.72258688721509</v>
       </c>
       <c r="S45" t="n">
         <v>154.3444070589077</v>
@@ -25998,19 +25998,19 @@
         <v>196.402196426276</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8799696935666</v>
+        <v>162.2729294214013</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>188.0879428887545</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>142.0756555051392</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26044,28 +26044,28 @@
         <v>131.9159057251499</v>
       </c>
       <c r="J46" t="n">
-        <v>71.66641760481423</v>
+        <v>71.66641760481421</v>
       </c>
       <c r="K46" t="n">
-        <v>38.09070847194255</v>
+        <v>38.09070847194253</v>
       </c>
       <c r="L46" t="n">
-        <v>18.53511620527681</v>
+        <v>18.53511620527679</v>
       </c>
       <c r="M46" t="n">
-        <v>16.2514862595897</v>
+        <v>16.25148625958968</v>
       </c>
       <c r="N46" t="n">
-        <v>7.928167385701542</v>
+        <v>7.928167385701528</v>
       </c>
       <c r="O46" t="n">
-        <v>27.84121742572995</v>
+        <v>27.84121742572994</v>
       </c>
       <c r="P46" t="n">
-        <v>43.07748752410232</v>
+        <v>43.07748752410231</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.97389010567912</v>
+        <v>85.9738901056791</v>
       </c>
       <c r="R46" t="n">
         <v>142.1053686221429</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>242119.372512229</v>
+        <v>242119.3725122289</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319525.5228135703</v>
+        <v>319525.5228135704</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319525.5228135703</v>
+        <v>319525.5228135704</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324292.2101643956</v>
+        <v>324292.2101643957</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>326177.5329923521</v>
+        <v>326177.532992352</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>319525.5228135702</v>
+        <v>319525.5228135703</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>319401.9124206878</v>
+        <v>319401.9124206879</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>95336.56905052949</v>
       </c>
       <c r="C2" t="n">
-        <v>95336.56905052954</v>
+        <v>95336.56905052949</v>
       </c>
       <c r="D2" t="n">
-        <v>96847.74900489162</v>
+        <v>96847.74900489164</v>
       </c>
       <c r="E2" t="n">
         <v>127810.2091254281</v>
       </c>
       <c r="F2" t="n">
-        <v>127810.209125428</v>
+        <v>127810.2091254281</v>
       </c>
       <c r="G2" t="n">
         <v>129716.8840657582</v>
@@ -26332,19 +26332,19 @@
         <v>129756.6506178239</v>
       </c>
       <c r="I2" t="n">
-        <v>130471.0131969407</v>
+        <v>130471.0131969408</v>
       </c>
       <c r="J2" t="n">
-        <v>130471.0131969407</v>
+        <v>130471.0131969408</v>
       </c>
       <c r="K2" t="n">
         <v>130471.0131969407</v>
       </c>
       <c r="L2" t="n">
-        <v>130471.0131969407</v>
+        <v>130471.0131969408</v>
       </c>
       <c r="M2" t="n">
-        <v>129716.8840657582</v>
+        <v>129716.8840657583</v>
       </c>
       <c r="N2" t="n">
         <v>129716.8840657582</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3260.306457990909</v>
+        <v>3260.306457990893</v>
       </c>
       <c r="H3" t="n">
-        <v>66.9377125148447</v>
+        <v>66.93771251485869</v>
       </c>
       <c r="I3" t="n">
-        <v>1566.313811563009</v>
+        <v>1566.313811563007</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14383.28064178033</v>
+        <v>14383.28064178049</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.24139109989084</v>
+        <v>46.24139109989085</v>
       </c>
       <c r="F4" t="n">
-        <v>46.24139109989084</v>
+        <v>46.24139109989087</v>
       </c>
       <c r="G4" t="n">
-        <v>52.0775555943204</v>
+        <v>52.07755559432042</v>
       </c>
       <c r="H4" t="n">
-        <v>52.19927751677412</v>
+        <v>52.19927751677415</v>
       </c>
       <c r="I4" t="n">
-        <v>54.3858786159994</v>
+        <v>54.38587861599942</v>
       </c>
       <c r="J4" t="n">
-        <v>54.3858786159994</v>
+        <v>54.38587861599942</v>
       </c>
       <c r="K4" t="n">
-        <v>54.3858786159994</v>
+        <v>54.38587861599943</v>
       </c>
       <c r="L4" t="n">
-        <v>54.3858786159994</v>
+        <v>54.38587861599942</v>
       </c>
       <c r="M4" t="n">
-        <v>52.07755559432042</v>
+        <v>52.07755559432044</v>
       </c>
       <c r="N4" t="n">
-        <v>52.07755559432043</v>
+        <v>52.07755559432044</v>
       </c>
       <c r="O4" t="n">
-        <v>46.24139109989084</v>
+        <v>46.24139109989089</v>
       </c>
       <c r="P4" t="n">
-        <v>46.09004687842462</v>
+        <v>46.09004687842469</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>13343.17508850555</v>
       </c>
       <c r="G5" t="n">
-        <v>14066.40559234868</v>
+        <v>14066.40559234869</v>
       </c>
       <c r="H5" t="n">
-        <v>14081.48964410716</v>
+        <v>14081.48964410717</v>
       </c>
       <c r="I5" t="n">
-        <v>14439.61058883522</v>
+        <v>14439.61058883523</v>
       </c>
       <c r="J5" t="n">
-        <v>14439.61058883522</v>
+        <v>14439.61058883523</v>
       </c>
       <c r="K5" t="n">
-        <v>14439.61058883522</v>
+        <v>14439.61058883523</v>
       </c>
       <c r="L5" t="n">
-        <v>14439.61058883522</v>
+        <v>14439.61058883523</v>
       </c>
       <c r="M5" t="n">
         <v>14066.40559234869</v>
@@ -26522,16 +26522,16 @@
         <v>-253447.0173332821</v>
       </c>
       <c r="C6" t="n">
-        <v>54736.86648727221</v>
+        <v>54736.86648727216</v>
       </c>
       <c r="D6" t="n">
-        <v>50542.28192404116</v>
+        <v>50542.28192404117</v>
       </c>
       <c r="E6" t="n">
-        <v>8858.564118422612</v>
+        <v>8858.564118422582</v>
       </c>
       <c r="F6" t="n">
-        <v>114420.7926458226</v>
+        <v>114420.7926458227</v>
       </c>
       <c r="G6" t="n">
         <v>112338.0944598243</v>
@@ -26558,7 +26558,7 @@
         <v>115598.4009178152</v>
       </c>
       <c r="O6" t="n">
-        <v>114420.7926458226</v>
+        <v>114420.7926458227</v>
       </c>
       <c r="P6" t="n">
         <v>114386.5838846496</v>
@@ -26747,37 +26747,37 @@
         <v>433.9808710183227</v>
       </c>
       <c r="F3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="G3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="H3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="I3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="J3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="K3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="L3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="M3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="N3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="O3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
       <c r="P3" t="n">
-        <v>433.9808710183227</v>
+        <v>433.9808710183228</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="F4" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="G4" t="n">
-        <v>75.75037177877059</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="H4" t="n">
-        <v>75.99846473532446</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="I4" t="n">
         <v>81.88861185256235</v>
@@ -26820,16 +26820,16 @@
         <v>81.88861185256235</v>
       </c>
       <c r="M4" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="N4" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="O4" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="P4" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
     </row>
   </sheetData>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.89523855005166</v>
+        <v>11.8952385500516</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2480929565538759</v>
+        <v>0.2480929565539277</v>
       </c>
       <c r="I4" t="n">
-        <v>5.890147117237859</v>
+        <v>5.890147117237855</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71689315492662</v>
+        <v>57.71689315492726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.89523855005166</v>
+        <v>11.8952385500516</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2480929565538759</v>
+        <v>0.2480929565539277</v>
       </c>
     </row>
   </sheetData>
@@ -31282,16 +31282,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31309,13 +31309,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S5" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31382,22 +31382,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,37 +31434,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.311832071514228</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H8" t="n">
         <v>13.43480020239508</v>
@@ -31525,19 +31525,19 @@
         <v>111.3401072796808</v>
       </c>
       <c r="K8" t="n">
-        <v>166.8699588668781</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L8" t="n">
         <v>207.0169396254816</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272728</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>221.028945939343</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P8" t="n">
         <v>188.6430916738354</v>
@@ -31549,10 +31549,10 @@
         <v>82.40437136225566</v>
       </c>
       <c r="S8" t="n">
-        <v>29.89337332963049</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T8" t="n">
-        <v>5.742544893053534</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U8" t="n">
         <v>0.1049465657211382</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7018920371314101</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H9" t="n">
-        <v>6.77879941124283</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I9" t="n">
-        <v>24.16601969948057</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J9" t="n">
-        <v>66.31340513968293</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K9" t="n">
         <v>113.3401716274874</v>
@@ -31622,19 +31622,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.59590284505509</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R9" t="n">
         <v>43.57887577908879</v>
       </c>
       <c r="S9" t="n">
-        <v>13.03733674233123</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T9" t="n">
         <v>2.829117465455112</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04617710770601384</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5884427058493127</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H10" t="n">
         <v>5.231790602914802</v>
@@ -31680,28 +31680,28 @@
         <v>17.69607700863206</v>
       </c>
       <c r="J10" t="n">
-        <v>41.6028993035464</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K10" t="n">
         <v>68.36634346140194</v>
       </c>
       <c r="L10" t="n">
-        <v>87.48538192236056</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M10" t="n">
-        <v>92.2410688814518</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N10" t="n">
-        <v>90.04778243237715</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O10" t="n">
-        <v>83.17370173222834</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P10" t="n">
-        <v>71.1694705329023</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.27405239616381</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R10" t="n">
         <v>26.45852384664272</v>
@@ -31710,7 +31710,7 @@
         <v>10.25495151921029</v>
       </c>
       <c r="T10" t="n">
-        <v>2.51425519771979</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U10" t="n">
         <v>0.032096874864508</v>
@@ -31996,7 +31996,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J14" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K14" t="n">
         <v>221.9256049117466</v>
@@ -32011,7 +32011,7 @@
         <v>293.2681968253099</v>
       </c>
       <c r="O14" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P14" t="n">
         <v>250.882378808135</v>
@@ -32023,10 +32023,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S14" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T14" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U14" t="n">
         <v>0.1395717374129278</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H15" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I15" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J15" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>150.7346578139773</v>
       </c>
       <c r="L15" t="n">
         <v>202.4095130085932</v>
@@ -32087,7 +32087,7 @@
         <v>205.9891671507373</v>
       </c>
       <c r="N15" t="n">
-        <v>148.3397458113687</v>
+        <v>135.4465269717505</v>
       </c>
       <c r="O15" t="n">
         <v>206.4513776731634</v>
@@ -32096,19 +32096,19 @@
         <v>178.2515015320353</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R15" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S15" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T15" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H16" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I16" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J16" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K16" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L16" t="n">
         <v>116.3495600759615</v>
@@ -32169,13 +32169,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O16" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P16" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R16" t="n">
         <v>35.18802275502662</v>
@@ -32233,7 +32233,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J17" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K17" t="n">
         <v>221.9256049117466</v>
@@ -32248,7 +32248,7 @@
         <v>305.1634353753615</v>
       </c>
       <c r="O17" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P17" t="n">
         <v>250.882378808135</v>
@@ -32260,10 +32260,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S17" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T17" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U17" t="n">
         <v>0.1395717374129278</v>
@@ -32303,25 +32303,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H18" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I18" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J18" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K18" t="n">
-        <v>150.7346578139773</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>202.6813492430384</v>
+        <v>166.9670363589692</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2768739771015</v>
+        <v>217.8844057007889</v>
       </c>
       <c r="N18" t="n">
         <v>207.0920838621039</v>
@@ -32333,19 +32333,19 @@
         <v>178.2515015320353</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R18" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S18" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T18" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H19" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I19" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J19" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K19" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L19" t="n">
         <v>116.3495600759615</v>
@@ -32406,13 +32406,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O19" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P19" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R19" t="n">
         <v>35.18802275502662</v>
@@ -32470,7 +32470,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J20" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K20" t="n">
         <v>221.9256049117466</v>
@@ -32479,13 +32479,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M20" t="n">
-        <v>306.3446979625972</v>
+        <v>306.3446979625973</v>
       </c>
       <c r="N20" t="n">
         <v>305.4115283319154</v>
       </c>
       <c r="O20" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P20" t="n">
         <v>250.882378808135</v>
@@ -32497,10 +32497,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S20" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T20" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U20" t="n">
         <v>0.1395717374129278</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H21" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I21" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J21" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K21" t="n">
         <v>150.7346578139773</v>
@@ -32564,25 +32564,25 @@
         <v>207.3401768186578</v>
       </c>
       <c r="O21" t="n">
-        <v>170.2252464547948</v>
+        <v>170.2252464547949</v>
       </c>
       <c r="P21" t="n">
         <v>178.2515015320353</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R21" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S21" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T21" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H22" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I22" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J22" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K22" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L22" t="n">
         <v>116.3495600759615</v>
@@ -32643,13 +32643,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O22" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P22" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R22" t="n">
         <v>35.18802275502662</v>
@@ -32707,7 +32707,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J23" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K23" t="n">
         <v>221.9256049117466</v>
@@ -32716,13 +32716,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M23" t="n">
-        <v>306.3446979625972</v>
+        <v>306.3446979625973</v>
       </c>
       <c r="N23" t="n">
         <v>311.3016754491533</v>
       </c>
       <c r="O23" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P23" t="n">
         <v>250.882378808135</v>
@@ -32734,10 +32734,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S23" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T23" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U23" t="n">
         <v>0.1395717374129278</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H24" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I24" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J24" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K24" t="n">
-        <v>150.7346578139773</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>202.6813492430384</v>
       </c>
       <c r="M24" t="n">
-        <v>183.6943487393732</v>
+        <v>224.0226457745807</v>
       </c>
       <c r="N24" t="n">
-        <v>213.2303239358957</v>
+        <v>185.7952457403064</v>
       </c>
       <c r="O24" t="n">
         <v>222.0958519823675</v>
@@ -32807,19 +32807,19 @@
         <v>178.2515015320353</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R24" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S24" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T24" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H25" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I25" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J25" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K25" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L25" t="n">
         <v>116.3495600759615</v>
@@ -32880,13 +32880,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O25" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P25" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R25" t="n">
         <v>35.18802275502662</v>
@@ -32944,7 +32944,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J26" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K26" t="n">
         <v>221.9256049117466</v>
@@ -32953,13 +32953,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M26" t="n">
-        <v>306.3446979625972</v>
+        <v>306.3446979625973</v>
       </c>
       <c r="N26" t="n">
         <v>311.3016754491533</v>
       </c>
       <c r="O26" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P26" t="n">
         <v>250.882378808135</v>
@@ -32971,10 +32971,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S26" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T26" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U26" t="n">
         <v>0.1395717374129278</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H27" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I27" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J27" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K27" t="n">
         <v>150.7346578139773</v>
@@ -33035,7 +33035,7 @@
         <v>224.0226457745807</v>
       </c>
       <c r="N27" t="n">
-        <v>172.9020269006882</v>
+        <v>172.9020269006881</v>
       </c>
       <c r="O27" t="n">
         <v>222.0958519823675</v>
@@ -33044,19 +33044,19 @@
         <v>178.2515015320353</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R27" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S27" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T27" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H28" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I28" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K28" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L28" t="n">
         <v>116.3495600759615</v>
@@ -33117,13 +33117,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O28" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P28" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R28" t="n">
         <v>35.18802275502662</v>
@@ -33181,7 +33181,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J29" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K29" t="n">
         <v>221.9256049117466</v>
@@ -33190,13 +33190,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M29" t="n">
-        <v>306.3446979625972</v>
+        <v>306.3446979625973</v>
       </c>
       <c r="N29" t="n">
         <v>311.3016754491533</v>
       </c>
       <c r="O29" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P29" t="n">
         <v>250.882378808135</v>
@@ -33208,10 +33208,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S29" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T29" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U29" t="n">
         <v>0.1395717374129278</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H30" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I30" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J30" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>150.7346578139773</v>
       </c>
       <c r="L30" t="n">
         <v>202.6813492430384</v>
       </c>
       <c r="M30" t="n">
-        <v>196.5875675789914</v>
+        <v>224.0226457745807</v>
       </c>
       <c r="N30" t="n">
-        <v>213.2303239358957</v>
+        <v>172.9020269006881</v>
       </c>
       <c r="O30" t="n">
         <v>222.0958519823675</v>
@@ -33281,19 +33281,19 @@
         <v>178.2515015320353</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R30" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S30" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T30" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H31" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I31" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K31" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L31" t="n">
         <v>116.3495600759615</v>
@@ -33354,13 +33354,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O31" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P31" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R31" t="n">
         <v>35.18802275502662</v>
@@ -33418,7 +33418,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J32" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K32" t="n">
         <v>221.9256049117466</v>
@@ -33427,13 +33427,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M32" t="n">
-        <v>306.3446979625972</v>
+        <v>306.3446979625973</v>
       </c>
       <c r="N32" t="n">
         <v>311.3016754491533</v>
       </c>
       <c r="O32" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P32" t="n">
         <v>250.882378808135</v>
@@ -33445,10 +33445,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S32" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T32" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U32" t="n">
         <v>0.1395717374129278</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H33" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I33" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J33" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K33" t="n">
         <v>150.7346578139773</v>
@@ -33509,28 +33509,28 @@
         <v>224.0226457745807</v>
       </c>
       <c r="N33" t="n">
-        <v>213.2303239358957</v>
+        <v>172.9020269006881</v>
       </c>
       <c r="O33" t="n">
-        <v>181.76755494716</v>
+        <v>222.0958519823675</v>
       </c>
       <c r="P33" t="n">
         <v>178.2515015320353</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R33" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S33" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T33" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H34" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I34" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J34" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K34" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L34" t="n">
         <v>116.3495600759615</v>
@@ -33591,13 +33591,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O34" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P34" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R34" t="n">
         <v>35.18802275502662</v>
@@ -33655,7 +33655,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J35" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K35" t="n">
         <v>221.9256049117466</v>
@@ -33664,13 +33664,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M35" t="n">
-        <v>306.0966050060433</v>
+        <v>306.0966050060434</v>
       </c>
       <c r="N35" t="n">
         <v>305.1634353753615</v>
       </c>
       <c r="O35" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P35" t="n">
         <v>250.882378808135</v>
@@ -33682,10 +33682,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S35" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T35" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U35" t="n">
         <v>0.1395717374129278</v>
@@ -33725,25 +33725,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H36" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I36" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J36" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K36" t="n">
         <v>150.7346578139773</v>
       </c>
       <c r="L36" t="n">
-        <v>202.6813492430384</v>
+        <v>154.073817519351</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2768739771016</v>
+        <v>217.8844057007889</v>
       </c>
       <c r="N36" t="n">
         <v>207.0920838621039</v>
@@ -33755,19 +33755,19 @@
         <v>178.2515015320353</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R36" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S36" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T36" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H37" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I37" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J37" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K37" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L37" t="n">
         <v>116.3495600759615</v>
@@ -33828,13 +33828,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O37" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P37" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R37" t="n">
         <v>35.18802275502662</v>
@@ -33892,7 +33892,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J38" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K38" t="n">
         <v>221.9256049117466</v>
@@ -33904,10 +33904,10 @@
         <v>306.0966050060434</v>
       </c>
       <c r="N38" t="n">
-        <v>305.1634353753616</v>
+        <v>305.1634353753615</v>
       </c>
       <c r="O38" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P38" t="n">
         <v>250.882378808135</v>
@@ -33919,10 +33919,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S38" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T38" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U38" t="n">
         <v>0.1395717374129278</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H39" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I39" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J39" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K39" t="n">
         <v>150.7346578139773</v>
@@ -33980,31 +33980,31 @@
         <v>202.6813492430384</v>
       </c>
       <c r="M39" t="n">
-        <v>217.884405700789</v>
+        <v>169.2768739771016</v>
       </c>
       <c r="N39" t="n">
         <v>207.0920838621039</v>
       </c>
       <c r="O39" t="n">
-        <v>169.7390844995278</v>
+        <v>218.3466162232151</v>
       </c>
       <c r="P39" t="n">
         <v>178.2515015320353</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R39" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S39" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T39" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H40" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I40" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J40" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K40" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L40" t="n">
         <v>116.3495600759615</v>
@@ -34065,13 +34065,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O40" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P40" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R40" t="n">
         <v>35.18802275502662</v>
@@ -34129,7 +34129,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J41" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K41" t="n">
         <v>221.9256049117466</v>
@@ -34138,13 +34138,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M41" t="n">
-        <v>294.2013664559917</v>
+        <v>294.2013664559918</v>
       </c>
       <c r="N41" t="n">
         <v>293.2681968253099</v>
       </c>
       <c r="O41" t="n">
-        <v>293.9533446504057</v>
+        <v>293.9533446504058</v>
       </c>
       <c r="P41" t="n">
         <v>250.882378808135</v>
@@ -34156,10 +34156,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S41" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T41" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U41" t="n">
         <v>0.1395717374129278</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H42" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I42" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J42" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K42" t="n">
         <v>150.7346578139773</v>
       </c>
       <c r="L42" t="n">
-        <v>142.6591946682913</v>
+        <v>202.4095130085932</v>
       </c>
       <c r="M42" t="n">
-        <v>205.9891671507373</v>
+        <v>205.9891671507374</v>
       </c>
       <c r="N42" t="n">
-        <v>195.1968453120523</v>
+        <v>135.4465269717505</v>
       </c>
       <c r="O42" t="n">
-        <v>206.4513776731634</v>
+        <v>206.4513776731635</v>
       </c>
       <c r="P42" t="n">
         <v>178.2515015320353</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R42" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S42" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T42" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H43" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I43" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J43" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K43" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L43" t="n">
         <v>116.3495600759615</v>
@@ -34302,13 +34302,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O43" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P43" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R43" t="n">
         <v>35.18802275502662</v>
@@ -34366,7 +34366,7 @@
         <v>67.26049258264881</v>
       </c>
       <c r="J44" t="n">
-        <v>148.0747093531311</v>
+        <v>148.0747093531312</v>
       </c>
       <c r="K44" t="n">
         <v>221.9256049117466</v>
@@ -34375,13 +34375,13 @@
         <v>275.3183368973828</v>
       </c>
       <c r="M44" t="n">
-        <v>293.9532734994378</v>
+        <v>293.953273499438</v>
       </c>
       <c r="N44" t="n">
-        <v>293.0201038687561</v>
+        <v>293.0201038687562</v>
       </c>
       <c r="O44" t="n">
-        <v>293.7052516938518</v>
+        <v>293.705251693852</v>
       </c>
       <c r="P44" t="n">
         <v>250.882378808135</v>
@@ -34393,10 +34393,10 @@
         <v>109.5921643783104</v>
       </c>
       <c r="S44" t="n">
-        <v>39.75613707871369</v>
+        <v>39.7561370787137</v>
       </c>
       <c r="T44" t="n">
-        <v>7.637191006563647</v>
+        <v>7.637191006563648</v>
       </c>
       <c r="U44" t="n">
         <v>0.1395717374129278</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9334682886054489</v>
+        <v>0.9334682886054491</v>
       </c>
       <c r="H45" t="n">
-        <v>9.015338471531573</v>
+        <v>9.015338471531575</v>
       </c>
       <c r="I45" t="n">
-        <v>32.13914941031918</v>
+        <v>32.13914941031919</v>
       </c>
       <c r="J45" t="n">
-        <v>88.19228247741218</v>
+        <v>88.19228247741219</v>
       </c>
       <c r="K45" t="n">
         <v>150.7346578139773</v>
       </c>
       <c r="L45" t="n">
-        <v>142.421125669578</v>
+        <v>202.1614200520394</v>
       </c>
       <c r="M45" t="n">
-        <v>205.7410741941835</v>
+        <v>205.7410741941836</v>
       </c>
       <c r="N45" t="n">
-        <v>194.9487523554984</v>
+        <v>194.9487523554986</v>
       </c>
       <c r="O45" t="n">
-        <v>206.2032847166096</v>
+        <v>190.7400844518534</v>
       </c>
       <c r="P45" t="n">
-        <v>178.2515015320353</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.1564082086534</v>
+        <v>119.1564082086535</v>
       </c>
       <c r="R45" t="n">
-        <v>57.95691707674886</v>
+        <v>57.95691707674887</v>
       </c>
       <c r="S45" t="n">
         <v>17.33876404493015</v>
       </c>
       <c r="T45" t="n">
-        <v>3.762532268545645</v>
+        <v>3.762532268545646</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06141238740825324</v>
+        <v>0.06141238740825325</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7825884559346802</v>
+        <v>0.7825884559346803</v>
       </c>
       <c r="H46" t="n">
-        <v>6.957922817310162</v>
+        <v>6.957922817310163</v>
       </c>
       <c r="I46" t="n">
         <v>23.53456920210839</v>
       </c>
       <c r="J46" t="n">
-        <v>55.32900383458189</v>
+        <v>55.3290038345819</v>
       </c>
       <c r="K46" t="n">
-        <v>90.92254969859283</v>
+        <v>90.92254969859285</v>
       </c>
       <c r="L46" t="n">
         <v>116.3495600759615</v>
@@ -34539,13 +34539,13 @@
         <v>119.7573770795317</v>
       </c>
       <c r="O46" t="n">
-        <v>110.6153210261128</v>
+        <v>110.6153210261129</v>
       </c>
       <c r="P46" t="n">
-        <v>94.65051652504529</v>
+        <v>94.6505165250453</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.53111152376673</v>
+        <v>65.53111152376674</v>
       </c>
       <c r="R46" t="n">
         <v>35.18802275502662</v>
@@ -35416,13 +35416,13 @@
         <v>39.55192192739554</v>
       </c>
       <c r="M11" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="N11" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="O11" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="P11" t="n">
         <v>19.64938305286546</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="M12" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="N12" t="n">
         <v>16.99803372803544</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="P12" t="n">
         <v>44.27709411770502</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L14" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M14" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="N14" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="O14" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P14" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.89321883961827</v>
       </c>
       <c r="L15" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="M15" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="N15" t="n">
-        <v>16.99803372803544</v>
+        <v>4.10481488841718</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85513322871898</v>
+        <v>63.855133228719</v>
       </c>
       <c r="P15" t="n">
         <v>44.27709411770502</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L17" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M17" t="n">
-        <v>75.75037177877059</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="N17" t="n">
-        <v>75.75037177877059</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="O17" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P17" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>12.89321883961827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>64.12696946316419</v>
+        <v>28.41265657909503</v>
       </c>
       <c r="M18" t="n">
-        <v>27.14284005508321</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="N18" t="n">
-        <v>75.75037177877059</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="O18" t="n">
-        <v>75.75037177877059</v>
+        <v>75.75037177877057</v>
       </c>
       <c r="P18" t="n">
         <v>44.27709411770502</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L20" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M20" t="n">
-        <v>75.99846473532446</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="N20" t="n">
-        <v>75.99846473532446</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="O20" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P20" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L21" t="n">
-        <v>64.12696946316419</v>
+        <v>64.12696946316422</v>
       </c>
       <c r="M21" t="n">
-        <v>75.99846473532446</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="N21" t="n">
-        <v>75.99846473532446</v>
+        <v>75.9984647353245</v>
       </c>
       <c r="O21" t="n">
-        <v>27.62900201035036</v>
+        <v>27.62900201035042</v>
       </c>
       <c r="P21" t="n">
         <v>44.27709411770502</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L23" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M23" t="n">
-        <v>75.99846473532446</v>
+        <v>75.99846473532452</v>
       </c>
       <c r="N23" t="n">
         <v>81.88861185256235</v>
       </c>
       <c r="O23" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P23" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>12.89321883961827</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>64.12696946316419</v>
+        <v>64.12696946316422</v>
       </c>
       <c r="M24" t="n">
-        <v>41.56031481735485</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="N24" t="n">
-        <v>81.88861185256235</v>
+        <v>54.45353365697306</v>
       </c>
       <c r="O24" t="n">
-        <v>79.49960753792303</v>
+        <v>79.49960753792305</v>
       </c>
       <c r="P24" t="n">
         <v>44.27709411770502</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L26" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M26" t="n">
-        <v>75.99846473532446</v>
+        <v>75.99846473532452</v>
       </c>
       <c r="N26" t="n">
         <v>81.88861185256235</v>
       </c>
       <c r="O26" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P26" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L27" t="n">
-        <v>64.12696946316419</v>
+        <v>64.12696946316422</v>
       </c>
       <c r="M27" t="n">
         <v>81.88861185256235</v>
       </c>
       <c r="N27" t="n">
-        <v>41.56031481735485</v>
+        <v>41.56031481735479</v>
       </c>
       <c r="O27" t="n">
-        <v>79.49960753792303</v>
+        <v>79.49960753792305</v>
       </c>
       <c r="P27" t="n">
         <v>44.27709411770502</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L29" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M29" t="n">
-        <v>75.99846473532446</v>
+        <v>75.99846473532452</v>
       </c>
       <c r="N29" t="n">
-        <v>81.88861185256235</v>
+        <v>81.88861185256241</v>
       </c>
       <c r="O29" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P29" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.89321883961827</v>
       </c>
       <c r="L30" t="n">
-        <v>64.12696946316419</v>
+        <v>64.12696946316422</v>
       </c>
       <c r="M30" t="n">
-        <v>54.45353365697311</v>
+        <v>81.88861185256235</v>
       </c>
       <c r="N30" t="n">
-        <v>81.88861185256235</v>
+        <v>41.56031481735479</v>
       </c>
       <c r="O30" t="n">
-        <v>79.49960753792303</v>
+        <v>79.49960753792305</v>
       </c>
       <c r="P30" t="n">
         <v>44.27709411770502</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L32" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M32" t="n">
-        <v>75.99846473532446</v>
+        <v>75.99846473532452</v>
       </c>
       <c r="N32" t="n">
         <v>81.88861185256235</v>
       </c>
       <c r="O32" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P32" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L33" t="n">
-        <v>64.12696946316419</v>
+        <v>64.12696946316422</v>
       </c>
       <c r="M33" t="n">
         <v>81.88861185256235</v>
       </c>
       <c r="N33" t="n">
-        <v>81.88861185256235</v>
+        <v>41.56031481735479</v>
       </c>
       <c r="O33" t="n">
-        <v>39.17131050271554</v>
+        <v>79.49960753792305</v>
       </c>
       <c r="P33" t="n">
         <v>44.27709411770502</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L35" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M35" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="N35" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="O35" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P35" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L36" t="n">
-        <v>64.12696946316419</v>
+        <v>15.51943773947684</v>
       </c>
       <c r="M36" t="n">
-        <v>27.14284005508323</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="N36" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="O36" t="n">
-        <v>75.75037177877061</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="P36" t="n">
         <v>44.27709411770502</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L38" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M38" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="N38" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="O38" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871904</v>
       </c>
       <c r="P38" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L39" t="n">
-        <v>64.12696946316419</v>
+        <v>64.12696946316422</v>
       </c>
       <c r="M39" t="n">
-        <v>75.75037177877064</v>
+        <v>27.14284005508324</v>
       </c>
       <c r="N39" t="n">
-        <v>75.75037177877064</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="O39" t="n">
-        <v>27.14284005508333</v>
+        <v>75.75037177877063</v>
       </c>
       <c r="P39" t="n">
         <v>44.27709411770502</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L41" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M41" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="N41" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="O41" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="P41" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L42" t="n">
-        <v>4.104814888417166</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="M42" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="N42" t="n">
-        <v>63.85513322871898</v>
+        <v>4.104814888417209</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85513322871898</v>
+        <v>63.85513322871903</v>
       </c>
       <c r="P42" t="n">
         <v>44.27709411770502</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.835753866766055</v>
+        <v>1.835753866766083</v>
       </c>
       <c r="L44" t="n">
-        <v>39.55192192739554</v>
+        <v>39.5519219273956</v>
       </c>
       <c r="M44" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="N44" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="O44" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="P44" t="n">
-        <v>19.64938305286546</v>
+        <v>19.64938305286549</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>12.89321883961827</v>
       </c>
       <c r="L45" t="n">
-        <v>3.866745889703858</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="M45" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="N45" t="n">
-        <v>63.60704027216513</v>
+        <v>63.60704027216525</v>
       </c>
       <c r="O45" t="n">
-        <v>63.60704027216513</v>
+        <v>48.143840007409</v>
       </c>
       <c r="P45" t="n">
-        <v>44.27709411770502</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
